--- a/MISSING-SHEETS.xlsx
+++ b/MISSING-SHEETS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/rainfall-rescue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C53941-9A82-6545-88AF-A447A9014F0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12B64EA-9B5A-4644-A81D-9DDC2E69A443}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="780" windowWidth="27200" windowHeight="8400" xr2:uid="{BBF0E115-4142-CB48-B420-5D0EBD0E64F7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Station name</t>
   </si>
@@ -61,13 +61,34 @@
   </si>
   <si>
     <t>WHATSTANDWELL MEERBROOK SOUGH</t>
+  </si>
+  <si>
+    <t>PONDERS-END-PUMPING-STATION</t>
+  </si>
+  <si>
+    <t>CHESWARDINE-KNIGHTON-RES</t>
+  </si>
+  <si>
+    <t>BIRMINGHAM-WW-TYRMYNYDD</t>
+  </si>
+  <si>
+    <t>THE-STYE</t>
+  </si>
+  <si>
+    <t>STYE C</t>
+  </si>
+  <si>
+    <t>STYE B SEATHWAITE</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +103,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF646464"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,10 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC75AAC6-CB18-4040-A1AE-A5995A9D3845}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,7 +464,7 @@
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -465,7 +493,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -480,7 +508,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -495,12 +523,79 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4227</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1930</v>
+      </c>
       <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>890</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1920</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2309</v>
+      </c>
+      <c r="D7">
+        <v>1890</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>3626</v>
+      </c>
+      <c r="D8">
+        <v>1910</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>1910</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MISSING-SHEETS.xlsx
+++ b/MISSING-SHEETS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/rainfall-rescue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12B64EA-9B5A-4644-A81D-9DDC2E69A443}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9966CB22-40F0-404D-A456-109CAFBD2115}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="780" windowWidth="27200" windowHeight="8400" xr2:uid="{BBF0E115-4142-CB48-B420-5D0EBD0E64F7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Station name</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Decade missing</t>
   </si>
   <si>
-    <t>Station number</t>
-  </si>
-  <si>
     <t>Reading Caversham Lock</t>
   </si>
   <si>
@@ -82,6 +79,21 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>ALLOA CLACKMANNAN</t>
+  </si>
+  <si>
+    <t>ALLOA-CLACKMANNAN</t>
+  </si>
+  <si>
+    <t>KEITH HRS</t>
+  </si>
+  <si>
+    <t>KEITH-STATION</t>
+  </si>
+  <si>
+    <t>Met Office Station number</t>
   </si>
 </sst>
 </file>
@@ -450,17 +462,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC75AAC6-CB18-4040-A1AE-A5995A9D3845}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -472,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -480,10 +492,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>804</v>
@@ -495,10 +507,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>2651</v>
@@ -510,10 +522,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>2667</v>
@@ -525,10 +537,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>4227</v>
@@ -540,10 +552,10 @@
     </row>
     <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>890</v>
@@ -555,10 +567,10 @@
     </row>
     <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>2309</v>
@@ -570,10 +582,10 @@
     </row>
     <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>3626</v>
@@ -585,16 +597,44 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>1910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>1880</v>
       </c>
     </row>
   </sheetData>

--- a/MISSING-SHEETS.xlsx
+++ b/MISSING-SHEETS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/rainfall-rescue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9966CB22-40F0-404D-A456-109CAFBD2115}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2313CCA-5DB5-F448-BFE2-0959D802FE0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="780" windowWidth="27200" windowHeight="8400" xr2:uid="{BBF0E115-4142-CB48-B420-5D0EBD0E64F7}"/>
+    <workbookView xWindow="1240" yWindow="780" windowWidth="27200" windowHeight="14880" xr2:uid="{BBF0E115-4142-CB48-B420-5D0EBD0E64F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Station name</t>
   </si>
@@ -94,13 +94,49 @@
   </si>
   <si>
     <t>Met Office Station number</t>
+  </si>
+  <si>
+    <t>Killamarsh Norwood MS&amp;LR</t>
+  </si>
+  <si>
+    <t>KILLAMARSH-NORWOOD</t>
+  </si>
+  <si>
+    <t>Combs Reservoir</t>
+  </si>
+  <si>
+    <t>COMBS-RES</t>
+  </si>
+  <si>
+    <t>Farndale/Bransdale No. 7</t>
+  </si>
+  <si>
+    <t>3465/2</t>
+  </si>
+  <si>
+    <t>Scalby St Philips</t>
+  </si>
+  <si>
+    <t>Grimsby - Riby</t>
+  </si>
+  <si>
+    <t>Sibsey - Ivydene</t>
+  </si>
+  <si>
+    <t>2543/4</t>
+  </si>
+  <si>
+    <t>Stamford Castle Cottage</t>
+  </si>
+  <si>
+    <t>Filey Vicarage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,12 +151,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF646464"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,11 +173,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,179 +503,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC75AAC6-CB18-4040-A1AE-A5995A9D3845}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>804</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>1900</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>2651</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>1920</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>2667</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>1910</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>4227</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>1930</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>890</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>1920</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>2309</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>1890</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>3626</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>1910</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4">
         <v>1910</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4">
         <v>1840</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4">
         <v>1880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3468</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3407</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1930</v>
       </c>
     </row>
   </sheetData>

--- a/MISSING-SHEETS.xlsx
+++ b/MISSING-SHEETS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/rainfall-rescue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2313CCA-5DB5-F448-BFE2-0959D802FE0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F203186C-55AB-9B48-865F-E462DD5F01DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="780" windowWidth="27200" windowHeight="14880" xr2:uid="{BBF0E115-4142-CB48-B420-5D0EBD0E64F7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Station name</t>
   </si>
@@ -81,15 +81,9 @@
     <t>None</t>
   </si>
   <si>
-    <t>ALLOA CLACKMANNAN</t>
-  </si>
-  <si>
     <t>ALLOA-CLACKMANNAN</t>
   </si>
   <si>
-    <t>KEITH HRS</t>
-  </si>
-  <si>
     <t>KEITH-STATION</t>
   </si>
   <si>
@@ -126,10 +120,34 @@
     <t>2543/4</t>
   </si>
   <si>
-    <t>Stamford Castle Cottage</t>
-  </si>
-  <si>
     <t>Filey Vicarage</t>
+  </si>
+  <si>
+    <t>Thundersley Reservoir</t>
+  </si>
+  <si>
+    <t>THUNDERSLEY-RES</t>
+  </si>
+  <si>
+    <t>1276</t>
+  </si>
+  <si>
+    <t>Keith Highland Railway Station</t>
+  </si>
+  <si>
+    <t>Cheswardine Knighton Reservoir</t>
+  </si>
+  <si>
+    <t>WHATSTANDWELL-MEERBROOK-SOUGH</t>
+  </si>
+  <si>
+    <t>Birmingham Waterworks Tyrmynydd</t>
+  </si>
+  <si>
+    <t>Alloa Clackmannan</t>
+  </si>
+  <si>
+    <t>PONDERS END PUMPING STATION</t>
   </si>
 </sst>
 </file>
@@ -505,7 +523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC75AAC6-CB18-4040-A1AE-A5995A9D3845}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -524,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -532,97 +552,97 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6">
-        <v>804</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="4">
-        <v>1900</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2651</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="4">
-        <v>1920</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2667</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="4">
-        <v>1910</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6">
-        <v>4227</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="4">
-        <v>1930</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6">
-        <v>890</v>
+        <v>2309</v>
       </c>
       <c r="D6" s="4">
-        <v>1920</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6">
-        <v>2309</v>
+        <v>804</v>
       </c>
       <c r="D7" s="4">
-        <v>1890</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6">
-        <v>3626</v>
+        <v>2667</v>
       </c>
       <c r="D8" s="4">
         <v>1910</v>
@@ -630,13 +650,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
+      <c r="C9" s="6">
+        <v>3626</v>
       </c>
       <c r="D9" s="4">
         <v>1910</v>
@@ -644,83 +664,83 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="4">
-        <v>1840</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2651</v>
       </c>
       <c r="D11" s="4">
-        <v>1880</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>890</v>
       </c>
       <c r="D12" s="4">
-        <v>1860</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3468</v>
       </c>
       <c r="D13" s="4">
-        <v>1870</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4">
-        <v>1930</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3468</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="4">
         <v>1920</v>
@@ -728,61 +748,64 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4227</v>
       </c>
       <c r="D16" s="4">
-        <v>1920</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D17" s="4">
-        <v>1950</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>14</v>
+      <c r="C18" s="6">
+        <v>3407</v>
       </c>
       <c r="D18" s="4">
-        <v>1890</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="6">
-        <v>3407</v>
+      <c r="C19" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D19" s="4">
-        <v>1930</v>
+        <v>1950</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
+    <sortCondition ref="D2:D19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>